--- a/data/public/CMT_Oraux_YYYY_PT.xlsx
+++ b/data/public/CMT_Oraux_YYYY_PT.xlsx
@@ -497,7 +497,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LELIEVRE Charlotte</t>
+          <t>MARQUES Marc</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -525,7 +525,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LELIEVRE Charlotte</t>
+          <t>MARQUES Marc</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -553,7 +553,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CHAUVIN Lorraine</t>
+          <t>CHAUVIN Céline</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -581,7 +581,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LELIEVRE Charlotte</t>
+          <t>MARQUES Marc</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -609,7 +609,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>LELIEVRE Charlotte</t>
+          <t>MARQUES Marc</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -637,7 +637,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DELMAS Élisabeth</t>
+          <t>GAY Cécile</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -665,7 +665,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -693,7 +693,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>LEDOUX Lucie</t>
+          <t>PONS Pénélope</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -721,7 +721,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>LEDOUX Lucie</t>
+          <t>PONS Pénélope</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -749,7 +749,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -777,7 +777,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -805,7 +805,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>LELIEVRE Charlotte</t>
+          <t>MARQUES Marc</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -833,7 +833,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -861,7 +861,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>COSTE Olivie</t>
+          <t>LAPORTE François</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -889,7 +889,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -917,7 +917,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -945,7 +945,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -973,7 +973,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -1001,7 +1001,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>LEDOUX Lucie</t>
+          <t>PONS Pénélope</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>LELIEVRE Charlotte</t>
+          <t>MARQUES Marc</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -1085,7 +1085,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>LEDOUX Lucie</t>
+          <t>PONS Pénélope</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -1113,7 +1113,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>LELIEVRE Charlotte</t>
+          <t>MARQUES Marc</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -1141,7 +1141,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>COSTE Olivie</t>
+          <t>LAPORTE François</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>BRUNEAU Cécile</t>
+          <t>CHAUVIN Andrée</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -1281,7 +1281,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>DELMAS Élisabeth</t>
+          <t>GAY Cécile</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>LEDOUX Lucie</t>
+          <t>PONS Pénélope</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -1337,7 +1337,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>DELMAS Élisabeth</t>
+          <t>GAY Cécile</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>COSTE Olivie</t>
+          <t>LAPORTE François</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>LEDOUX Lucie</t>
+          <t>PONS Pénélope</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>LELIEVRE Charlotte</t>
+          <t>MARQUES Marc</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>LEDOUX Lucie</t>
+          <t>PONS Pénélope</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -1505,7 +1505,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>LELIEVRE Charlotte</t>
+          <t>MARQUES Marc</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -1533,7 +1533,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>LEDOUX Lucie</t>
+          <t>PONS Pénélope</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -1617,7 +1617,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>LEDOUX Lucie</t>
+          <t>PONS Pénélope</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -1645,7 +1645,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -1673,7 +1673,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>LELIEVRE Charlotte</t>
+          <t>MARQUES Marc</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -1701,7 +1701,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>LEDOUX Lucie</t>
+          <t>PONS Pénélope</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -1729,7 +1729,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>LEDOUX Lucie</t>
+          <t>PONS Pénélope</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -1813,7 +1813,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>LELIEVRE Charlotte</t>
+          <t>MARQUES Marc</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -1841,7 +1841,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>COSTE Olivie</t>
+          <t>LAPORTE François</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -1869,7 +1869,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -1925,7 +1925,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>FAURE Jeannine</t>
+          <t>BARBE Chantal</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>LELIEVRE Charlotte</t>
+          <t>MARQUES Marc</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -1981,7 +1981,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>COSTE Olivie</t>
+          <t>LAPORTE François</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -2009,7 +2009,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>COSTE Olivie</t>
+          <t>LAPORTE François</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -2037,7 +2037,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>LELIEVRE Charlotte</t>
+          <t>MARQUES Marc</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -2065,7 +2065,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -2093,7 +2093,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>COSTE Olivie</t>
+          <t>LAPORTE François</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>DELMAS Élisabeth</t>
+          <t>GAY Cécile</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -2149,7 +2149,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -2177,7 +2177,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>LELIEVRE Charlotte</t>
+          <t>MARQUES Marc</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -2205,7 +2205,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -2261,7 +2261,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>DELMAS Élisabeth</t>
+          <t>GAY Cécile</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -2289,7 +2289,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>LEDOUX Lucie</t>
+          <t>PONS Pénélope</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -2317,7 +2317,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>PREVOST Louis</t>
+          <t>COLIN Vincent</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -2345,7 +2345,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -2373,7 +2373,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>DELMAS Élisabeth</t>
+          <t>GAY Cécile</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -2401,7 +2401,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>LEDOUX Lucie</t>
+          <t>PONS Pénélope</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -2429,7 +2429,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>COSTE Olivie</t>
+          <t>LAPORTE François</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -2457,7 +2457,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -2485,7 +2485,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>LELIEVRE Charlotte</t>
+          <t>MARQUES Marc</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -2513,7 +2513,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -2541,7 +2541,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>LEDOUX Lucie</t>
+          <t>PONS Pénélope</t>
         </is>
       </c>
       <c r="D76" t="n">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -2597,7 +2597,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>LELIEVRE Charlotte</t>
+          <t>MARQUES Marc</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -2625,7 +2625,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>DELMAS Élisabeth</t>
+          <t>GAY Cécile</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -2653,7 +2653,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>LEDOUX Lucie</t>
+          <t>PONS Pénélope</t>
         </is>
       </c>
       <c r="D80" t="n">
@@ -2681,7 +2681,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>LELIEVRE Charlotte</t>
+          <t>MARQUES Marc</t>
         </is>
       </c>
       <c r="D81" t="n">
@@ -2709,7 +2709,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>LELIEVRE Charlotte</t>
+          <t>MARQUES Marc</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -2737,7 +2737,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -2765,7 +2765,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>COSTE Olivie</t>
+          <t>LAPORTE François</t>
         </is>
       </c>
       <c r="D84" t="n">
@@ -2793,7 +2793,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>LEDOUX Lucie</t>
+          <t>PONS Pénélope</t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -2821,7 +2821,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D86" t="n">
@@ -2849,7 +2849,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>LEDOUX Lucie</t>
+          <t>PONS Pénélope</t>
         </is>
       </c>
       <c r="D87" t="n">
@@ -2877,7 +2877,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D88" t="n">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>DELMAS Élisabeth</t>
+          <t>GAY Cécile</t>
         </is>
       </c>
       <c r="D89" t="n">
@@ -2933,7 +2933,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -2961,7 +2961,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>LELIEVRE Charlotte</t>
+          <t>MARQUES Marc</t>
         </is>
       </c>
       <c r="D91" t="n">
@@ -2989,7 +2989,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D92" t="n">
@@ -3017,7 +3017,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>COSTE Olivie</t>
+          <t>LAPORTE François</t>
         </is>
       </c>
       <c r="D93" t="n">
@@ -3045,7 +3045,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>CHAUVIN Lorraine</t>
+          <t>CHAUVIN Céline</t>
         </is>
       </c>
       <c r="D94" t="n">
@@ -3073,7 +3073,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -3101,7 +3101,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D96" t="n">
@@ -3129,7 +3129,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D97" t="n">
@@ -3157,7 +3157,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>LELIEVRE Charlotte</t>
+          <t>MARQUES Marc</t>
         </is>
       </c>
       <c r="D98" t="n">
@@ -3185,7 +3185,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D99" t="n">
@@ -3213,7 +3213,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D100" t="n">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D101" t="n">
@@ -3269,7 +3269,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>DELMAS Élisabeth</t>
+          <t>GAY Cécile</t>
         </is>
       </c>
       <c r="D102" t="n">
@@ -3297,7 +3297,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D103" t="n">
@@ -3325,7 +3325,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>LEDOUX Lucie</t>
+          <t>PONS Pénélope</t>
         </is>
       </c>
       <c r="D104" t="n">
@@ -3353,7 +3353,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D105" t="n">
@@ -3381,7 +3381,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D106" t="n">
@@ -3409,7 +3409,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>DELMAS Élisabeth</t>
+          <t>GAY Cécile</t>
         </is>
       </c>
       <c r="D107" t="n">
@@ -3437,7 +3437,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D108" t="n">
@@ -3465,7 +3465,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>COSTE Olivie</t>
+          <t>LAPORTE François</t>
         </is>
       </c>
       <c r="D109" t="n">
@@ -3493,7 +3493,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>CHAUVIN Lorraine</t>
+          <t>CHAUVIN Céline</t>
         </is>
       </c>
       <c r="D110" t="n">
@@ -3521,7 +3521,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>LELIEVRE Charlotte</t>
+          <t>MARQUES Marc</t>
         </is>
       </c>
       <c r="D111" t="n">
@@ -3549,7 +3549,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D112" t="n">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>LEDOUX Lucie</t>
+          <t>PONS Pénélope</t>
         </is>
       </c>
       <c r="D113" t="n">
@@ -3605,7 +3605,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>LELIEVRE Charlotte</t>
+          <t>MARQUES Marc</t>
         </is>
       </c>
       <c r="D114" t="n">
@@ -3633,7 +3633,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>DELMAS Élisabeth</t>
+          <t>GAY Cécile</t>
         </is>
       </c>
       <c r="D115" t="n">
@@ -3661,7 +3661,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>DELMAS Élisabeth</t>
+          <t>GAY Cécile</t>
         </is>
       </c>
       <c r="D116" t="n">
@@ -3689,7 +3689,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>CHAUVIN Lorraine</t>
+          <t>CHAUVIN Céline</t>
         </is>
       </c>
       <c r="D117" t="n">
@@ -3717,7 +3717,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D118" t="n">
@@ -3745,7 +3745,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>LEDOUX Lucie</t>
+          <t>PONS Pénélope</t>
         </is>
       </c>
       <c r="D119" t="n">
@@ -3773,7 +3773,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>LELIEVRE Charlotte</t>
+          <t>MARQUES Marc</t>
         </is>
       </c>
       <c r="D120" t="n">
@@ -3801,7 +3801,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D121" t="n">
@@ -3829,7 +3829,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>LELIEVRE Charlotte</t>
+          <t>MARQUES Marc</t>
         </is>
       </c>
       <c r="D122" t="n">
@@ -3857,7 +3857,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>PREVOST Louis</t>
+          <t>COLIN Vincent</t>
         </is>
       </c>
       <c r="D123" t="n">
@@ -3885,7 +3885,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>DELMAS Élisabeth</t>
+          <t>GAY Cécile</t>
         </is>
       </c>
       <c r="D124" t="n">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>LEDOUX Lucie</t>
+          <t>PONS Pénélope</t>
         </is>
       </c>
       <c r="D125" t="n">
@@ -3941,7 +3941,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>DELMAS Élisabeth</t>
+          <t>GAY Cécile</t>
         </is>
       </c>
       <c r="D126" t="n">
@@ -3969,7 +3969,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>PREVOST Louis</t>
+          <t>COLIN Vincent</t>
         </is>
       </c>
       <c r="D127" t="n">
@@ -3997,7 +3997,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>DELMAS Élisabeth</t>
+          <t>GAY Cécile</t>
         </is>
       </c>
       <c r="D128" t="n">
@@ -4025,7 +4025,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D129" t="n">
@@ -4053,7 +4053,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>PREVOST Louis</t>
+          <t>COLIN Vincent</t>
         </is>
       </c>
       <c r="D130" t="n">
@@ -4081,7 +4081,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>DELMAS Élisabeth</t>
+          <t>GAY Cécile</t>
         </is>
       </c>
       <c r="D131" t="n">
@@ -4109,7 +4109,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D132" t="n">
@@ -4137,7 +4137,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>COSTE Olivie</t>
+          <t>LAPORTE François</t>
         </is>
       </c>
       <c r="D133" t="n">
@@ -4165,7 +4165,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>COSTE Olivie</t>
+          <t>LAPORTE François</t>
         </is>
       </c>
       <c r="D134" t="n">
@@ -4193,7 +4193,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>COSTE Olivie</t>
+          <t>LAPORTE François</t>
         </is>
       </c>
       <c r="D135" t="n">
@@ -4221,7 +4221,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>DELMAS Élisabeth</t>
+          <t>GAY Cécile</t>
         </is>
       </c>
       <c r="D136" t="n">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>DELMAS Élisabeth</t>
+          <t>GAY Cécile</t>
         </is>
       </c>
       <c r="D137" t="n">
@@ -4277,7 +4277,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>LEDOUX Lucie</t>
+          <t>PONS Pénélope</t>
         </is>
       </c>
       <c r="D138" t="n">
@@ -4305,7 +4305,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>LELIEVRE Charlotte</t>
+          <t>MARQUES Marc</t>
         </is>
       </c>
       <c r="D139" t="n">
@@ -4333,7 +4333,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>DELMAS Élisabeth</t>
+          <t>GAY Cécile</t>
         </is>
       </c>
       <c r="D140" t="n">
@@ -4361,7 +4361,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D141" t="n">
@@ -4389,7 +4389,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>COSTE Olivie</t>
+          <t>LAPORTE François</t>
         </is>
       </c>
       <c r="D142" t="n">
@@ -4417,7 +4417,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D143" t="n">
@@ -4445,7 +4445,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D144" t="n">
@@ -4473,7 +4473,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D145" t="n">
@@ -4501,7 +4501,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D146" t="n">
@@ -4529,7 +4529,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D147" t="n">
@@ -4557,7 +4557,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D148" t="n">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>DELMAS Élisabeth</t>
+          <t>GAY Cécile</t>
         </is>
       </c>
       <c r="D149" t="n">
@@ -4613,7 +4613,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D150" t="n">
@@ -4641,7 +4641,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D151" t="n">
@@ -4669,7 +4669,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>DELMAS Élisabeth</t>
+          <t>GAY Cécile</t>
         </is>
       </c>
       <c r="D152" t="n">
@@ -4697,7 +4697,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D153" t="n">
@@ -4725,7 +4725,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D154" t="n">
@@ -4753,7 +4753,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>LEDOUX Lucie</t>
+          <t>PONS Pénélope</t>
         </is>
       </c>
       <c r="D155" t="n">
@@ -4781,7 +4781,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D156" t="n">
@@ -4809,7 +4809,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>COSTE Olivie</t>
+          <t>LAPORTE François</t>
         </is>
       </c>
       <c r="D157" t="n">
@@ -4837,7 +4837,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D158" t="n">
@@ -4865,7 +4865,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>LELIEVRE Charlotte</t>
+          <t>MARQUES Marc</t>
         </is>
       </c>
       <c r="D159" t="n">
@@ -4893,7 +4893,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D160" t="n">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D161" t="n">
@@ -4949,7 +4949,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>DELMAS Élisabeth</t>
+          <t>GAY Cécile</t>
         </is>
       </c>
       <c r="D162" t="n">
@@ -4977,7 +4977,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>COSTE Olivie</t>
+          <t>LAPORTE François</t>
         </is>
       </c>
       <c r="D163" t="n">
@@ -5005,7 +5005,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>COSTE Olivie</t>
+          <t>LAPORTE François</t>
         </is>
       </c>
       <c r="D164" t="n">
@@ -5033,7 +5033,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>DELMAS Élisabeth</t>
+          <t>GAY Cécile</t>
         </is>
       </c>
       <c r="D165" t="n">
@@ -5061,7 +5061,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>COSTE Olivie</t>
+          <t>LAPORTE François</t>
         </is>
       </c>
       <c r="D166" t="n">
@@ -5089,7 +5089,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>BRUNEAU Cécile</t>
+          <t>CHAUVIN Andrée</t>
         </is>
       </c>
       <c r="D167" t="n">
@@ -5117,7 +5117,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>LEDOUX Lucie</t>
+          <t>PONS Pénélope</t>
         </is>
       </c>
       <c r="D168" t="n">
@@ -5145,7 +5145,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>COSTE Olivie</t>
+          <t>LAPORTE François</t>
         </is>
       </c>
       <c r="D169" t="n">
@@ -5173,7 +5173,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D170" t="n">
@@ -5201,7 +5201,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>LEDOUX Lucie</t>
+          <t>PONS Pénélope</t>
         </is>
       </c>
       <c r="D171" t="n">
@@ -5229,7 +5229,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>COSTE Olivie</t>
+          <t>LAPORTE François</t>
         </is>
       </c>
       <c r="D172" t="n">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D173" t="n">
@@ -5285,7 +5285,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>LELIEVRE Charlotte</t>
+          <t>MARQUES Marc</t>
         </is>
       </c>
       <c r="D174" t="n">
@@ -5313,7 +5313,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D175" t="n">
@@ -5341,7 +5341,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D176" t="n">
@@ -5369,7 +5369,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D177" t="n">
@@ -5397,7 +5397,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D178" t="n">
@@ -5425,7 +5425,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>COSTE Olivie</t>
+          <t>LAPORTE François</t>
         </is>
       </c>
       <c r="D179" t="n">
@@ -5453,7 +5453,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D180" t="n">
@@ -5481,7 +5481,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>LEDOUX Lucie</t>
+          <t>PONS Pénélope</t>
         </is>
       </c>
       <c r="D181" t="n">
@@ -5509,7 +5509,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>LELIEVRE Charlotte</t>
+          <t>MARQUES Marc</t>
         </is>
       </c>
       <c r="D182" t="n">
@@ -5537,7 +5537,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>DELMAS Élisabeth</t>
+          <t>GAY Cécile</t>
         </is>
       </c>
       <c r="D183" t="n">
@@ -5565,7 +5565,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D184" t="n">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>LEDOUX Lucie</t>
+          <t>PONS Pénélope</t>
         </is>
       </c>
       <c r="D185" t="n">
@@ -5621,7 +5621,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D186" t="n">
@@ -5649,7 +5649,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D187" t="n">
@@ -5677,7 +5677,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>DELMAS Élisabeth</t>
+          <t>GAY Cécile</t>
         </is>
       </c>
       <c r="D188" t="n">
@@ -5705,7 +5705,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D189" t="n">
@@ -5733,7 +5733,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D190" t="n">
@@ -5761,7 +5761,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>DELMAS Élisabeth</t>
+          <t>GAY Cécile</t>
         </is>
       </c>
       <c r="D191" t="n">
@@ -5789,7 +5789,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>COSTE Olivie</t>
+          <t>LAPORTE François</t>
         </is>
       </c>
       <c r="D192" t="n">
@@ -5817,7 +5817,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D193" t="n">
@@ -5845,7 +5845,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D194" t="n">
@@ -5873,7 +5873,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>LELIEVRE Charlotte</t>
+          <t>MARQUES Marc</t>
         </is>
       </c>
       <c r="D195" t="n">
@@ -5901,7 +5901,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>COSTE Olivie</t>
+          <t>LAPORTE François</t>
         </is>
       </c>
       <c r="D196" t="n">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>DELMAS Élisabeth</t>
+          <t>GAY Cécile</t>
         </is>
       </c>
       <c r="D197" t="n">
@@ -5957,7 +5957,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>LEDOUX Lucie</t>
+          <t>PONS Pénélope</t>
         </is>
       </c>
       <c r="D198" t="n">
@@ -5985,7 +5985,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>LELIEVRE Charlotte</t>
+          <t>MARQUES Marc</t>
         </is>
       </c>
       <c r="D199" t="n">
@@ -6013,7 +6013,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D200" t="n">
@@ -6041,7 +6041,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>BRUNEAU Cécile</t>
+          <t>CHAUVIN Andrée</t>
         </is>
       </c>
       <c r="D201" t="n">
@@ -6069,7 +6069,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>LELIEVRE Charlotte</t>
+          <t>MARQUES Marc</t>
         </is>
       </c>
       <c r="D202" t="n">
@@ -6097,7 +6097,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D203" t="n">
@@ -6125,7 +6125,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D204" t="n">
@@ -6153,7 +6153,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D205" t="n">
@@ -6181,7 +6181,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>DELMAS Élisabeth</t>
+          <t>GAY Cécile</t>
         </is>
       </c>
       <c r="D206" t="n">
@@ -6209,7 +6209,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D207" t="n">
@@ -6237,7 +6237,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>BRUNEAU Cécile</t>
+          <t>CHAUVIN Andrée</t>
         </is>
       </c>
       <c r="D208" t="n">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>BRUNEAU Cécile</t>
+          <t>CHAUVIN Andrée</t>
         </is>
       </c>
       <c r="D209" t="n">
@@ -6293,7 +6293,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>DELMAS Élisabeth</t>
+          <t>GAY Cécile</t>
         </is>
       </c>
       <c r="D210" t="n">
@@ -6321,7 +6321,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D211" t="n">
@@ -6349,7 +6349,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>DELMAS Élisabeth</t>
+          <t>GAY Cécile</t>
         </is>
       </c>
       <c r="D212" t="n">
@@ -6377,7 +6377,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D213" t="n">
@@ -6405,7 +6405,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D214" t="n">
@@ -6433,7 +6433,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D215" t="n">
@@ -6461,7 +6461,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>DELMAS Élisabeth</t>
+          <t>GAY Cécile</t>
         </is>
       </c>
       <c r="D216" t="n">
@@ -6489,7 +6489,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D217" t="n">
@@ -6517,7 +6517,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>COSTE Olivie</t>
+          <t>LAPORTE François</t>
         </is>
       </c>
       <c r="D218" t="n">
@@ -6545,7 +6545,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>LEDOUX Lucie</t>
+          <t>PONS Pénélope</t>
         </is>
       </c>
       <c r="D219" t="n">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D220" t="n">
@@ -6601,7 +6601,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>DELMAS Élisabeth</t>
+          <t>GAY Cécile</t>
         </is>
       </c>
       <c r="D221" t="n">
@@ -6629,7 +6629,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>DELMAS Élisabeth</t>
+          <t>GAY Cécile</t>
         </is>
       </c>
       <c r="D222" t="n">
@@ -6657,7 +6657,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>DELMAS Élisabeth</t>
+          <t>GAY Cécile</t>
         </is>
       </c>
       <c r="D223" t="n">
@@ -6685,7 +6685,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>COSTE Olivie</t>
+          <t>LAPORTE François</t>
         </is>
       </c>
       <c r="D224" t="n">
@@ -6713,7 +6713,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D225" t="n">
@@ -6741,7 +6741,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>PREVOST Louis</t>
+          <t>COLIN Vincent</t>
         </is>
       </c>
       <c r="D226" t="n">
@@ -6769,7 +6769,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>LELIEVRE Charlotte</t>
+          <t>MARQUES Marc</t>
         </is>
       </c>
       <c r="D227" t="n">
@@ -6797,7 +6797,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>DELMAS Élisabeth</t>
+          <t>GAY Cécile</t>
         </is>
       </c>
       <c r="D228" t="n">
@@ -6825,7 +6825,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D229" t="n">
@@ -6853,7 +6853,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D230" t="n">
@@ -6881,7 +6881,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D231" t="n">
@@ -6909,7 +6909,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>LELIEVRE Charlotte</t>
+          <t>MARQUES Marc</t>
         </is>
       </c>
       <c r="D232" t="n">
@@ -6937,7 +6937,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>COSTE Olivie</t>
+          <t>LAPORTE François</t>
         </is>
       </c>
       <c r="D233" t="n">
@@ -6965,7 +6965,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>LELIEVRE Charlotte</t>
+          <t>MARQUES Marc</t>
         </is>
       </c>
       <c r="D234" t="n">
@@ -6993,7 +6993,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>LEDOUX Lucie</t>
+          <t>PONS Pénélope</t>
         </is>
       </c>
       <c r="D235" t="n">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D236" t="n">
@@ -7049,7 +7049,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D237" t="n">
@@ -7077,7 +7077,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>LELIEVRE Charlotte</t>
+          <t>MARQUES Marc</t>
         </is>
       </c>
       <c r="D238" t="n">
@@ -7105,7 +7105,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>COSTE Olivie</t>
+          <t>LAPORTE François</t>
         </is>
       </c>
       <c r="D239" t="n">
@@ -7133,7 +7133,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D240" t="n">
@@ -7161,7 +7161,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>LEDOUX Lucie</t>
+          <t>PONS Pénélope</t>
         </is>
       </c>
       <c r="D241" t="n">
@@ -7189,7 +7189,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D242" t="n">
@@ -7217,7 +7217,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>DELMAS Élisabeth</t>
+          <t>GAY Cécile</t>
         </is>
       </c>
       <c r="D243" t="n">
@@ -7245,7 +7245,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>DELMAS Élisabeth</t>
+          <t>GAY Cécile</t>
         </is>
       </c>
       <c r="D244" t="n">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D245" t="n">
@@ -7301,7 +7301,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D246" t="n">
@@ -7329,7 +7329,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>DELMAS Élisabeth</t>
+          <t>GAY Cécile</t>
         </is>
       </c>
       <c r="D247" t="n">
@@ -7357,7 +7357,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>LEDOUX Lucie</t>
+          <t>PONS Pénélope</t>
         </is>
       </c>
       <c r="D248" t="n">
@@ -7385,7 +7385,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D249" t="n">
@@ -7413,7 +7413,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>LELIEVRE Charlotte</t>
+          <t>MARQUES Marc</t>
         </is>
       </c>
       <c r="D250" t="n">
@@ -7441,7 +7441,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>COSTE Olivie</t>
+          <t>LAPORTE François</t>
         </is>
       </c>
       <c r="D251" t="n">
@@ -7469,7 +7469,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>COSTE Olivie</t>
+          <t>LAPORTE François</t>
         </is>
       </c>
       <c r="D252" t="n">
@@ -7497,7 +7497,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>BRUNEAU Cécile</t>
+          <t>CHAUVIN Andrée</t>
         </is>
       </c>
       <c r="D253" t="n">
@@ -7525,7 +7525,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D254" t="n">
@@ -7553,7 +7553,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>COSTE Olivie</t>
+          <t>LAPORTE François</t>
         </is>
       </c>
       <c r="D255" t="n">
@@ -7581,7 +7581,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>LEDOUX Lucie</t>
+          <t>PONS Pénélope</t>
         </is>
       </c>
       <c r="D256" t="n">
@@ -7609,7 +7609,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>LEDOUX Lucie</t>
+          <t>PONS Pénélope</t>
         </is>
       </c>
       <c r="D257" t="n">
@@ -7637,7 +7637,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>LELIEVRE Charlotte</t>
+          <t>MARQUES Marc</t>
         </is>
       </c>
       <c r="D258" t="n">
@@ -7665,7 +7665,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D259" t="n">
@@ -7693,7 +7693,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D260" t="n">
@@ -7721,7 +7721,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>BRUNEAU Cécile</t>
+          <t>CHAUVIN Andrée</t>
         </is>
       </c>
       <c r="D261" t="n">
@@ -7749,7 +7749,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D262" t="n">
@@ -7777,7 +7777,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>DELMAS Élisabeth</t>
+          <t>GAY Cécile</t>
         </is>
       </c>
       <c r="D263" t="n">
@@ -7805,7 +7805,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>CHAUVIN Lorraine</t>
+          <t>CHAUVIN Céline</t>
         </is>
       </c>
       <c r="D264" t="n">
@@ -7833,7 +7833,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>LELIEVRE Charlotte</t>
+          <t>MARQUES Marc</t>
         </is>
       </c>
       <c r="D265" t="n">
@@ -7861,7 +7861,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D266" t="n">
@@ -7889,7 +7889,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>COSTE Olivie</t>
+          <t>LAPORTE François</t>
         </is>
       </c>
       <c r="D267" t="n">
@@ -7917,7 +7917,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>DELMAS Élisabeth</t>
+          <t>GAY Cécile</t>
         </is>
       </c>
       <c r="D268" t="n">
@@ -7945,7 +7945,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>CHAUVIN Lorraine</t>
+          <t>CHAUVIN Céline</t>
         </is>
       </c>
       <c r="D269" t="n">
@@ -7973,7 +7973,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D270" t="n">
@@ -8001,7 +8001,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>LELIEVRE Charlotte</t>
+          <t>MARQUES Marc</t>
         </is>
       </c>
       <c r="D271" t="n">
@@ -8029,7 +8029,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D272" t="n">
@@ -8057,7 +8057,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>COSTE Olivie</t>
+          <t>LAPORTE François</t>
         </is>
       </c>
       <c r="D273" t="n">
@@ -8085,7 +8085,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>COSTE Olivie</t>
+          <t>LAPORTE François</t>
         </is>
       </c>
       <c r="D274" t="n">
@@ -8113,7 +8113,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>COSTE Olivie</t>
+          <t>LAPORTE François</t>
         </is>
       </c>
       <c r="D275" t="n">
@@ -8141,7 +8141,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>LELIEVRE Charlotte</t>
+          <t>MARQUES Marc</t>
         </is>
       </c>
       <c r="D276" t="n">
@@ -8169,7 +8169,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>DELMAS Élisabeth</t>
+          <t>GAY Cécile</t>
         </is>
       </c>
       <c r="D277" t="n">
@@ -8197,7 +8197,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>LELIEVRE Charlotte</t>
+          <t>MARQUES Marc</t>
         </is>
       </c>
       <c r="D278" t="n">
@@ -8225,7 +8225,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D279" t="n">
@@ -8253,7 +8253,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>COSTE Olivie</t>
+          <t>LAPORTE François</t>
         </is>
       </c>
       <c r="D280" t="n">
@@ -8281,7 +8281,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>DELMAS Élisabeth</t>
+          <t>GAY Cécile</t>
         </is>
       </c>
       <c r="D281" t="n">
@@ -8309,7 +8309,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D282" t="n">
@@ -8337,7 +8337,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D283" t="n">
@@ -8365,7 +8365,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D284" t="n">
@@ -8393,7 +8393,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>PREVOST Louis</t>
+          <t>COLIN Vincent</t>
         </is>
       </c>
       <c r="D285" t="n">
@@ -8421,7 +8421,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D286" t="n">
@@ -8449,7 +8449,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>COSTE Olivie</t>
+          <t>LAPORTE François</t>
         </is>
       </c>
       <c r="D287" t="n">
@@ -8477,7 +8477,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>COSTE Olivie</t>
+          <t>LAPORTE François</t>
         </is>
       </c>
       <c r="D288" t="n">
@@ -8505,7 +8505,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>COSTE Olivie</t>
+          <t>LAPORTE François</t>
         </is>
       </c>
       <c r="D289" t="n">
@@ -8533,7 +8533,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D290" t="n">
@@ -8561,7 +8561,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>LELIEVRE Charlotte</t>
+          <t>MARQUES Marc</t>
         </is>
       </c>
       <c r="D291" t="n">
@@ -8589,7 +8589,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>LELIEVRE Charlotte</t>
+          <t>MARQUES Marc</t>
         </is>
       </c>
       <c r="D292" t="n">
@@ -8617,7 +8617,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D293" t="n">
@@ -8645,7 +8645,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>COSTE Olivie</t>
+          <t>LAPORTE François</t>
         </is>
       </c>
       <c r="D294" t="n">
@@ -8673,7 +8673,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D295" t="n">
@@ -8701,7 +8701,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D296" t="n">
@@ -8729,7 +8729,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D297" t="n">
@@ -8757,7 +8757,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>COSTE Olivie</t>
+          <t>LAPORTE François</t>
         </is>
       </c>
       <c r="D298" t="n">
@@ -8785,7 +8785,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>LEDOUX Lucie</t>
+          <t>PONS Pénélope</t>
         </is>
       </c>
       <c r="D299" t="n">
@@ -8813,7 +8813,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>COSTE Olivie</t>
+          <t>LAPORTE François</t>
         </is>
       </c>
       <c r="D300" t="n">
@@ -8841,7 +8841,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D301" t="n">
@@ -8869,7 +8869,7 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>DELMAS Élisabeth</t>
+          <t>GAY Cécile</t>
         </is>
       </c>
       <c r="D302" t="n">
@@ -8897,7 +8897,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D303" t="n">
@@ -8925,7 +8925,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D304" t="n">
@@ -8953,7 +8953,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>LEDOUX Lucie</t>
+          <t>PONS Pénélope</t>
         </is>
       </c>
       <c r="D305" t="n">
@@ -8981,7 +8981,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>LEDOUX Lucie</t>
+          <t>PONS Pénélope</t>
         </is>
       </c>
       <c r="D306" t="n">
@@ -9009,7 +9009,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>BRUNEAU Cécile</t>
+          <t>CHAUVIN Andrée</t>
         </is>
       </c>
       <c r="D307" t="n">
@@ -9037,7 +9037,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>PREVOST Louis</t>
+          <t>COLIN Vincent</t>
         </is>
       </c>
       <c r="D308" t="n">
@@ -9065,7 +9065,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>COSTE Olivie</t>
+          <t>LAPORTE François</t>
         </is>
       </c>
       <c r="D309" t="n">
@@ -9093,7 +9093,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>COSTE Olivie</t>
+          <t>LAPORTE François</t>
         </is>
       </c>
       <c r="D310" t="n">
@@ -9121,7 +9121,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>LEDOUX Lucie</t>
+          <t>PONS Pénélope</t>
         </is>
       </c>
       <c r="D311" t="n">
@@ -9149,7 +9149,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>DELMAS Élisabeth</t>
+          <t>GAY Cécile</t>
         </is>
       </c>
       <c r="D312" t="n">
@@ -9177,7 +9177,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D313" t="n">
@@ -9205,7 +9205,7 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>LELIEVRE Charlotte</t>
+          <t>MARQUES Marc</t>
         </is>
       </c>
       <c r="D314" t="n">
@@ -9233,7 +9233,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D315" t="n">
@@ -9261,7 +9261,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>PREVOST Louis</t>
+          <t>COLIN Vincent</t>
         </is>
       </c>
       <c r="D316" t="n">
@@ -9289,7 +9289,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>COSTE Olivie</t>
+          <t>LAPORTE François</t>
         </is>
       </c>
       <c r="D317" t="n">
@@ -9317,7 +9317,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D318" t="n">
@@ -9345,7 +9345,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D319" t="n">
@@ -9373,7 +9373,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>LEDOUX Lucie</t>
+          <t>PONS Pénélope</t>
         </is>
       </c>
       <c r="D320" t="n">
@@ -9401,7 +9401,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D321" t="n">
@@ -9429,7 +9429,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>DELMAS Élisabeth</t>
+          <t>GAY Cécile</t>
         </is>
       </c>
       <c r="D322" t="n">
@@ -9457,7 +9457,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>DELMAS Élisabeth</t>
+          <t>GAY Cécile</t>
         </is>
       </c>
       <c r="D323" t="n">
@@ -9485,7 +9485,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D324" t="n">
@@ -9513,7 +9513,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D325" t="n">
@@ -9541,7 +9541,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D326" t="n">
@@ -9569,7 +9569,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D327" t="n">
@@ -9597,7 +9597,7 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>DELMAS Élisabeth</t>
+          <t>GAY Cécile</t>
         </is>
       </c>
       <c r="D328" t="n">
@@ -9625,7 +9625,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>PREVOST Louis</t>
+          <t>COLIN Vincent</t>
         </is>
       </c>
       <c r="D329" t="n">
@@ -9653,7 +9653,7 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>PREVOST Louis</t>
+          <t>COLIN Vincent</t>
         </is>
       </c>
       <c r="D330" t="n">
@@ -9681,7 +9681,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D331" t="n">
@@ -9709,7 +9709,7 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D332" t="n">
@@ -9737,7 +9737,7 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>LEDOUX Lucie</t>
+          <t>PONS Pénélope</t>
         </is>
       </c>
       <c r="D333" t="n">
@@ -9765,7 +9765,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>DELMAS Élisabeth</t>
+          <t>GAY Cécile</t>
         </is>
       </c>
       <c r="D334" t="n">
@@ -9793,7 +9793,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D335" t="n">
@@ -9821,7 +9821,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D336" t="n">
@@ -9849,7 +9849,7 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D337" t="n">
@@ -9877,7 +9877,7 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>DELMAS Élisabeth</t>
+          <t>GAY Cécile</t>
         </is>
       </c>
       <c r="D338" t="n">
@@ -9905,7 +9905,7 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>DELMAS Élisabeth</t>
+          <t>GAY Cécile</t>
         </is>
       </c>
       <c r="D339" t="n">
@@ -9933,7 +9933,7 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D340" t="n">
@@ -9961,7 +9961,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D341" t="n">
@@ -9989,7 +9989,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>LEDOUX Lucie</t>
+          <t>PONS Pénélope</t>
         </is>
       </c>
       <c r="D342" t="n">
@@ -10017,7 +10017,7 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>LEDOUX Lucie</t>
+          <t>PONS Pénélope</t>
         </is>
       </c>
       <c r="D343" t="n">
@@ -10045,7 +10045,7 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>LEDOUX Lucie</t>
+          <t>PONS Pénélope</t>
         </is>
       </c>
       <c r="D344" t="n">
@@ -10073,7 +10073,7 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>LELIEVRE Charlotte</t>
+          <t>MARQUES Marc</t>
         </is>
       </c>
       <c r="D345" t="n">
@@ -10101,7 +10101,7 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>DELMAS Élisabeth</t>
+          <t>GAY Cécile</t>
         </is>
       </c>
       <c r="D346" t="n">
@@ -10129,7 +10129,7 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D347" t="n">
@@ -10157,7 +10157,7 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>COSTE Olivie</t>
+          <t>LAPORTE François</t>
         </is>
       </c>
       <c r="D348" t="n">
@@ -10185,7 +10185,7 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D349" t="n">
@@ -10213,7 +10213,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D350" t="n">
@@ -10241,7 +10241,7 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D351" t="n">
@@ -10269,7 +10269,7 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>COSTE Olivie</t>
+          <t>LAPORTE François</t>
         </is>
       </c>
       <c r="D352" t="n">
@@ -10297,7 +10297,7 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>COSTE Olivie</t>
+          <t>LAPORTE François</t>
         </is>
       </c>
       <c r="D353" t="n">
@@ -10325,7 +10325,7 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>DELMAS Élisabeth</t>
+          <t>GAY Cécile</t>
         </is>
       </c>
       <c r="D354" t="n">
@@ -10353,7 +10353,7 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D355" t="n">
@@ -10381,7 +10381,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D356" t="n">
@@ -10409,7 +10409,7 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>PREVOST Louis</t>
+          <t>COLIN Vincent</t>
         </is>
       </c>
       <c r="D357" t="n">
@@ -10437,7 +10437,7 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D358" t="n">
@@ -10465,7 +10465,7 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D359" t="n">
@@ -10493,7 +10493,7 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D360" t="n">
@@ -10521,7 +10521,7 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>COSTE Olivie</t>
+          <t>LAPORTE François</t>
         </is>
       </c>
       <c r="D361" t="n">
@@ -10549,7 +10549,7 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D362" t="n">
@@ -10577,7 +10577,7 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>LELIEVRE Charlotte</t>
+          <t>MARQUES Marc</t>
         </is>
       </c>
       <c r="D363" t="n">
@@ -10605,7 +10605,7 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D364" t="n">
@@ -10633,7 +10633,7 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D365" t="n">
@@ -10661,7 +10661,7 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D366" t="n">
@@ -10689,7 +10689,7 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>DELMAS Élisabeth</t>
+          <t>GAY Cécile</t>
         </is>
       </c>
       <c r="D367" t="n">
@@ -10717,7 +10717,7 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D368" t="n">
@@ -10745,7 +10745,7 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>COSTE Olivie</t>
+          <t>LAPORTE François</t>
         </is>
       </c>
       <c r="D369" t="n">
@@ -10773,7 +10773,7 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>COSTE Olivie</t>
+          <t>LAPORTE François</t>
         </is>
       </c>
       <c r="D370" t="n">
@@ -10801,7 +10801,7 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>LEDOUX Lucie</t>
+          <t>PONS Pénélope</t>
         </is>
       </c>
       <c r="D371" t="n">
@@ -10829,7 +10829,7 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>LEDOUX Lucie</t>
+          <t>PONS Pénélope</t>
         </is>
       </c>
       <c r="D372" t="n">
@@ -10857,7 +10857,7 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>LEDOUX Lucie</t>
+          <t>PONS Pénélope</t>
         </is>
       </c>
       <c r="D373" t="n">
@@ -10885,7 +10885,7 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>DELMAS Élisabeth</t>
+          <t>GAY Cécile</t>
         </is>
       </c>
       <c r="D374" t="n">
@@ -10913,7 +10913,7 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>COSTE Olivie</t>
+          <t>LAPORTE François</t>
         </is>
       </c>
       <c r="D375" t="n">
@@ -10941,7 +10941,7 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D376" t="n">
@@ -10969,7 +10969,7 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D377" t="n">
@@ -10997,7 +10997,7 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D378" t="n">
@@ -11025,7 +11025,7 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>DELMAS Élisabeth</t>
+          <t>GAY Cécile</t>
         </is>
       </c>
       <c r="D379" t="n">
@@ -11053,7 +11053,7 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>DELMAS Élisabeth</t>
+          <t>GAY Cécile</t>
         </is>
       </c>
       <c r="D380" t="n">
@@ -11081,7 +11081,7 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D381" t="n">
@@ -11109,7 +11109,7 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D382" t="n">
@@ -11137,7 +11137,7 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D383" t="n">
@@ -11165,7 +11165,7 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D384" t="n">
@@ -11193,7 +11193,7 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D385" t="n">
@@ -11221,7 +11221,7 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D386" t="n">
@@ -11249,7 +11249,7 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>DELMAS Élisabeth</t>
+          <t>GAY Cécile</t>
         </is>
       </c>
       <c r="D387" t="n">
@@ -11277,7 +11277,7 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>LEDOUX Lucie</t>
+          <t>PONS Pénélope</t>
         </is>
       </c>
       <c r="D388" t="n">
@@ -11305,7 +11305,7 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>DELMAS Élisabeth</t>
+          <t>GAY Cécile</t>
         </is>
       </c>
       <c r="D389" t="n">
@@ -11333,7 +11333,7 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D390" t="n">
@@ -11361,7 +11361,7 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>LELIEVRE Charlotte</t>
+          <t>MARQUES Marc</t>
         </is>
       </c>
       <c r="D391" t="n">
@@ -11389,7 +11389,7 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D392" t="n">
@@ -11417,7 +11417,7 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>LELIEVRE Charlotte</t>
+          <t>MARQUES Marc</t>
         </is>
       </c>
       <c r="D393" t="n">
@@ -11445,7 +11445,7 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D394" t="n">
@@ -11473,7 +11473,7 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D395" t="n">
@@ -11501,7 +11501,7 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D396" t="n">
@@ -11529,7 +11529,7 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>LEDOUX Lucie</t>
+          <t>PONS Pénélope</t>
         </is>
       </c>
       <c r="D397" t="n">
@@ -11557,7 +11557,7 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D398" t="n">
@@ -11585,7 +11585,7 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D399" t="n">
@@ -11613,7 +11613,7 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>LEDOUX Lucie</t>
+          <t>PONS Pénélope</t>
         </is>
       </c>
       <c r="D400" t="n">
@@ -11641,7 +11641,7 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D401" t="n">
@@ -11669,7 +11669,7 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D402" t="n">
@@ -11697,7 +11697,7 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>LEDOUX Lucie</t>
+          <t>PONS Pénélope</t>
         </is>
       </c>
       <c r="D403" t="n">
@@ -11725,7 +11725,7 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>CHAUVIN Lorraine</t>
+          <t>CHAUVIN Céline</t>
         </is>
       </c>
       <c r="D404" t="n">
@@ -11753,7 +11753,7 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>PREVOST Louis</t>
+          <t>COLIN Vincent</t>
         </is>
       </c>
       <c r="D405" t="n">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D406" t="n">
@@ -11809,7 +11809,7 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D407" t="n">
@@ -11837,7 +11837,7 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D408" t="n">
@@ -11865,7 +11865,7 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D409" t="n">
@@ -11893,7 +11893,7 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D410" t="n">
@@ -11921,7 +11921,7 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>COSTE Olivie</t>
+          <t>LAPORTE François</t>
         </is>
       </c>
       <c r="D411" t="n">
@@ -11949,7 +11949,7 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>LELIEVRE Charlotte</t>
+          <t>MARQUES Marc</t>
         </is>
       </c>
       <c r="D412" t="n">
@@ -11977,7 +11977,7 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D413" t="n">
@@ -12005,7 +12005,7 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>CHAUVIN Lorraine</t>
+          <t>CHAUVIN Céline</t>
         </is>
       </c>
       <c r="D414" t="n">
@@ -12033,7 +12033,7 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>LEDOUX Lucie</t>
+          <t>PONS Pénélope</t>
         </is>
       </c>
       <c r="D415" t="n">
@@ -12061,7 +12061,7 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>COSTE Olivie</t>
+          <t>LAPORTE François</t>
         </is>
       </c>
       <c r="D416" t="n">
@@ -12089,7 +12089,7 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D417" t="n">
@@ -12117,7 +12117,7 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D418" t="n">
@@ -12145,7 +12145,7 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D419" t="n">
@@ -12173,7 +12173,7 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D420" t="n">
@@ -12201,7 +12201,7 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D421" t="n">
@@ -12229,7 +12229,7 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D422" t="n">
@@ -12257,7 +12257,7 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D423" t="n">
@@ -12285,7 +12285,7 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>PREVOST Louis</t>
+          <t>COLIN Vincent</t>
         </is>
       </c>
       <c r="D424" t="n">
@@ -12313,7 +12313,7 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>LELIEVRE Charlotte</t>
+          <t>MARQUES Marc</t>
         </is>
       </c>
       <c r="D425" t="n">
@@ -12341,7 +12341,7 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D426" t="n">
@@ -12369,7 +12369,7 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D427" t="n">
@@ -12397,7 +12397,7 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D428" t="n">
@@ -12425,7 +12425,7 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>DELMAS Élisabeth</t>
+          <t>GAY Cécile</t>
         </is>
       </c>
       <c r="D429" t="n">
@@ -12453,7 +12453,7 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>LEDOUX Lucie</t>
+          <t>PONS Pénélope</t>
         </is>
       </c>
       <c r="D430" t="n">
@@ -12481,7 +12481,7 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>BRUNEAU Cécile</t>
+          <t>CHAUVIN Andrée</t>
         </is>
       </c>
       <c r="D431" t="n">
@@ -12509,7 +12509,7 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>COSTE Olivie</t>
+          <t>LAPORTE François</t>
         </is>
       </c>
       <c r="D432" t="n">
@@ -12537,7 +12537,7 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>BRUNEAU Cécile</t>
+          <t>CHAUVIN Andrée</t>
         </is>
       </c>
       <c r="D433" t="n">
@@ -12565,7 +12565,7 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>DELMAS Élisabeth</t>
+          <t>GAY Cécile</t>
         </is>
       </c>
       <c r="D434" t="n">
@@ -12593,7 +12593,7 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>PREVOST Louis</t>
+          <t>COLIN Vincent</t>
         </is>
       </c>
       <c r="D435" t="n">
@@ -12621,7 +12621,7 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D436" t="n">
@@ -12649,7 +12649,7 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>LELIEVRE Charlotte</t>
+          <t>MARQUES Marc</t>
         </is>
       </c>
       <c r="D437" t="n">
@@ -12677,7 +12677,7 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D438" t="n">
@@ -12705,7 +12705,7 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>DELMAS Élisabeth</t>
+          <t>GAY Cécile</t>
         </is>
       </c>
       <c r="D439" t="n">
@@ -12733,7 +12733,7 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D440" t="n">
@@ -12761,7 +12761,7 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D441" t="n">
@@ -12789,7 +12789,7 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>PREVOST Louis</t>
+          <t>COLIN Vincent</t>
         </is>
       </c>
       <c r="D442" t="n">
@@ -12817,7 +12817,7 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>COSTE Olivie</t>
+          <t>LAPORTE François</t>
         </is>
       </c>
       <c r="D443" t="n">
@@ -12845,7 +12845,7 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D444" t="n">
@@ -12873,7 +12873,7 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>COSTE Olivie</t>
+          <t>LAPORTE François</t>
         </is>
       </c>
       <c r="D445" t="n">
@@ -12901,7 +12901,7 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D446" t="n">
@@ -12929,7 +12929,7 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>DELMAS Élisabeth</t>
+          <t>GAY Cécile</t>
         </is>
       </c>
       <c r="D447" t="n">
@@ -12957,7 +12957,7 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>PREVOST Louis</t>
+          <t>COLIN Vincent</t>
         </is>
       </c>
       <c r="D448" t="n">
@@ -12985,7 +12985,7 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D449" t="n">
@@ -13013,7 +13013,7 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>COSTE Olivie</t>
+          <t>LAPORTE François</t>
         </is>
       </c>
       <c r="D450" t="n">
@@ -13041,7 +13041,7 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>DELMAS Élisabeth</t>
+          <t>GAY Cécile</t>
         </is>
       </c>
       <c r="D451" t="n">
@@ -13069,7 +13069,7 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>DELMAS Élisabeth</t>
+          <t>GAY Cécile</t>
         </is>
       </c>
       <c r="D452" t="n">
@@ -13097,7 +13097,7 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D453" t="n">
@@ -13125,7 +13125,7 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>DELMAS Élisabeth</t>
+          <t>GAY Cécile</t>
         </is>
       </c>
       <c r="D454" t="n">
@@ -13153,7 +13153,7 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>DELMAS Élisabeth</t>
+          <t>GAY Cécile</t>
         </is>
       </c>
       <c r="D455" t="n">
@@ -13181,7 +13181,7 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>PREVOST Louis</t>
+          <t>COLIN Vincent</t>
         </is>
       </c>
       <c r="D456" t="n">
@@ -13209,7 +13209,7 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>CHAUVIN Lorraine</t>
+          <t>CHAUVIN Céline</t>
         </is>
       </c>
       <c r="D457" t="n">
@@ -13237,7 +13237,7 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D458" t="n">
@@ -13265,7 +13265,7 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D459" t="n">
@@ -13293,7 +13293,7 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D460" t="n">
@@ -13321,7 +13321,7 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D461" t="n">
@@ -13349,7 +13349,7 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>PREVOST Louis</t>
+          <t>COLIN Vincent</t>
         </is>
       </c>
       <c r="D462" t="n">
@@ -13377,7 +13377,7 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>BRUNEAU Cécile</t>
+          <t>CHAUVIN Andrée</t>
         </is>
       </c>
       <c r="D463" t="n">
@@ -13405,7 +13405,7 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D464" t="n">
@@ -13433,7 +13433,7 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D465" t="n">
@@ -13461,7 +13461,7 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>LEDOUX Lucie</t>
+          <t>PONS Pénélope</t>
         </is>
       </c>
       <c r="D466" t="n">
@@ -13489,7 +13489,7 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>BRUNEAU Cécile</t>
+          <t>CHAUVIN Andrée</t>
         </is>
       </c>
       <c r="D467" t="n">
@@ -13517,7 +13517,7 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D468" t="n">
@@ -13545,7 +13545,7 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>LELIEVRE Charlotte</t>
+          <t>MARQUES Marc</t>
         </is>
       </c>
       <c r="D469" t="n">
@@ -13573,7 +13573,7 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D470" t="n">
@@ -13601,7 +13601,7 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>PREVOST Louis</t>
+          <t>COLIN Vincent</t>
         </is>
       </c>
       <c r="D471" t="n">
@@ -13629,7 +13629,7 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>LEDOUX Lucie</t>
+          <t>PONS Pénélope</t>
         </is>
       </c>
       <c r="D472" t="n">
@@ -13657,7 +13657,7 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>LEDOUX Lucie</t>
+          <t>PONS Pénélope</t>
         </is>
       </c>
       <c r="D473" t="n">
@@ -13685,7 +13685,7 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>PREVOST Louis</t>
+          <t>COLIN Vincent</t>
         </is>
       </c>
       <c r="D474" t="n">
@@ -13713,7 +13713,7 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D475" t="n">
@@ -13741,7 +13741,7 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>LELIEVRE Charlotte</t>
+          <t>MARQUES Marc</t>
         </is>
       </c>
       <c r="D476" t="n">
@@ -13769,7 +13769,7 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>CHAUVIN Lorraine</t>
+          <t>CHAUVIN Céline</t>
         </is>
       </c>
       <c r="D477" t="n">
@@ -13797,7 +13797,7 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>DELMAS Élisabeth</t>
+          <t>GAY Cécile</t>
         </is>
       </c>
       <c r="D478" t="n">
@@ -13825,7 +13825,7 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D479" t="n">
@@ -13853,7 +13853,7 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>LELIEVRE Charlotte</t>
+          <t>MARQUES Marc</t>
         </is>
       </c>
       <c r="D480" t="n">
@@ -13881,7 +13881,7 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D481" t="n">
@@ -13909,7 +13909,7 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D482" t="n">
@@ -13937,7 +13937,7 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>DELMAS Élisabeth</t>
+          <t>GAY Cécile</t>
         </is>
       </c>
       <c r="D483" t="n">
@@ -13965,7 +13965,7 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>DELMAS Élisabeth</t>
+          <t>GAY Cécile</t>
         </is>
       </c>
       <c r="D484" t="n">
@@ -13993,7 +13993,7 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D485" t="n">
@@ -14021,7 +14021,7 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>LELIEVRE Charlotte</t>
+          <t>MARQUES Marc</t>
         </is>
       </c>
       <c r="D486" t="n">
@@ -14049,7 +14049,7 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>LELIEVRE Charlotte</t>
+          <t>MARQUES Marc</t>
         </is>
       </c>
       <c r="D487" t="n">
@@ -14077,7 +14077,7 @@
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>COSTE Olivie</t>
+          <t>LAPORTE François</t>
         </is>
       </c>
       <c r="D488" t="n">
@@ -14105,7 +14105,7 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>CHAUVIN Lorraine</t>
+          <t>CHAUVIN Céline</t>
         </is>
       </c>
       <c r="D489" t="n">
@@ -14133,7 +14133,7 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>LELIEVRE Charlotte</t>
+          <t>MARQUES Marc</t>
         </is>
       </c>
       <c r="D490" t="n">
@@ -14161,7 +14161,7 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D491" t="n">
@@ -14189,7 +14189,7 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>LELIEVRE Charlotte</t>
+          <t>MARQUES Marc</t>
         </is>
       </c>
       <c r="D492" t="n">
@@ -14217,7 +14217,7 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>LELIEVRE Charlotte</t>
+          <t>MARQUES Marc</t>
         </is>
       </c>
       <c r="D493" t="n">
@@ -14245,7 +14245,7 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D494" t="n">
@@ -14273,7 +14273,7 @@
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D495" t="n">
@@ -14301,7 +14301,7 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D496" t="n">
@@ -14329,7 +14329,7 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>LEDOUX Lucie</t>
+          <t>PONS Pénélope</t>
         </is>
       </c>
       <c r="D497" t="n">
@@ -14357,7 +14357,7 @@
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>LELIEVRE Charlotte</t>
+          <t>MARQUES Marc</t>
         </is>
       </c>
       <c r="D498" t="n">
@@ -14385,7 +14385,7 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>COSTE Olivie</t>
+          <t>LAPORTE François</t>
         </is>
       </c>
       <c r="D499" t="n">
@@ -14413,7 +14413,7 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>LELIEVRE Charlotte</t>
+          <t>MARQUES Marc</t>
         </is>
       </c>
       <c r="D500" t="n">
@@ -14441,7 +14441,7 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D501" t="n">
@@ -14469,7 +14469,7 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>LEDOUX Lucie</t>
+          <t>PONS Pénélope</t>
         </is>
       </c>
       <c r="D502" t="n">
@@ -14497,7 +14497,7 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>LEDOUX Lucie</t>
+          <t>PONS Pénélope</t>
         </is>
       </c>
       <c r="D503" t="n">
@@ -14525,7 +14525,7 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D504" t="n">
@@ -14553,7 +14553,7 @@
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>DELMAS Élisabeth</t>
+          <t>GAY Cécile</t>
         </is>
       </c>
       <c r="D505" t="n">
@@ -14581,7 +14581,7 @@
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D506" t="n">
@@ -14609,7 +14609,7 @@
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D507" t="n">
@@ -14637,7 +14637,7 @@
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>LELIEVRE Charlotte</t>
+          <t>MARQUES Marc</t>
         </is>
       </c>
       <c r="D508" t="n">
@@ -14665,7 +14665,7 @@
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>COSTE Olivie</t>
+          <t>LAPORTE François</t>
         </is>
       </c>
       <c r="D509" t="n">
@@ -14693,7 +14693,7 @@
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D510" t="n">
@@ -14721,7 +14721,7 @@
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>COSTE Olivie</t>
+          <t>LAPORTE François</t>
         </is>
       </c>
       <c r="D511" t="n">
@@ -14749,7 +14749,7 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D512" t="n">
@@ -14777,7 +14777,7 @@
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D513" t="n">
@@ -14805,7 +14805,7 @@
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>DELMAS Élisabeth</t>
+          <t>GAY Cécile</t>
         </is>
       </c>
       <c r="D514" t="n">
@@ -14833,7 +14833,7 @@
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>LEDOUX Lucie</t>
+          <t>PONS Pénélope</t>
         </is>
       </c>
       <c r="D515" t="n">
@@ -14861,7 +14861,7 @@
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>LELIEVRE Charlotte</t>
+          <t>MARQUES Marc</t>
         </is>
       </c>
       <c r="D516" t="n">
@@ -14889,7 +14889,7 @@
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>LEDOUX Lucie</t>
+          <t>PONS Pénélope</t>
         </is>
       </c>
       <c r="D517" t="n">
@@ -14917,7 +14917,7 @@
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D518" t="n">
@@ -14945,7 +14945,7 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D519" t="n">
@@ -14973,7 +14973,7 @@
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D520" t="n">
@@ -15001,7 +15001,7 @@
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>LEDOUX Lucie</t>
+          <t>PONS Pénélope</t>
         </is>
       </c>
       <c r="D521" t="n">
@@ -15029,7 +15029,7 @@
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>LELIEVRE Charlotte</t>
+          <t>MARQUES Marc</t>
         </is>
       </c>
       <c r="D522" t="n">
@@ -15057,7 +15057,7 @@
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>COSTE Olivie</t>
+          <t>LAPORTE François</t>
         </is>
       </c>
       <c r="D523" t="n">
@@ -15085,7 +15085,7 @@
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>LEDOUX Lucie</t>
+          <t>PONS Pénélope</t>
         </is>
       </c>
       <c r="D524" t="n">
@@ -15113,7 +15113,7 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>PREVOST Louis</t>
+          <t>COLIN Vincent</t>
         </is>
       </c>
       <c r="D525" t="n">
@@ -15141,7 +15141,7 @@
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>PREVOST Louis</t>
+          <t>COLIN Vincent</t>
         </is>
       </c>
       <c r="D526" t="n">
@@ -15169,7 +15169,7 @@
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>LEDOUX Lucie</t>
+          <t>PONS Pénélope</t>
         </is>
       </c>
       <c r="D527" t="n">
@@ -15197,7 +15197,7 @@
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>LEDOUX Lucie</t>
+          <t>PONS Pénélope</t>
         </is>
       </c>
       <c r="D528" t="n">
@@ -15225,7 +15225,7 @@
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>ADAM Laurence</t>
+          <t>DUPUY Thomas</t>
         </is>
       </c>
       <c r="D529" t="n">
@@ -15253,7 +15253,7 @@
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D530" t="n">
@@ -15281,7 +15281,7 @@
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>LEDOUX Lucie</t>
+          <t>PONS Pénélope</t>
         </is>
       </c>
       <c r="D531" t="n">
@@ -15309,7 +15309,7 @@
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>CHAUVIN Lorraine</t>
+          <t>CHAUVIN Céline</t>
         </is>
       </c>
       <c r="D532" t="n">
@@ -15337,7 +15337,7 @@
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>PREVOST Louis</t>
+          <t>COLIN Vincent</t>
         </is>
       </c>
       <c r="D533" t="n">
@@ -15365,7 +15365,7 @@
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>ROCHER Alix</t>
+          <t>GOMES Noémi</t>
         </is>
       </c>
       <c r="D534" t="n">
@@ -15393,7 +15393,7 @@
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>COSTE Olivie</t>
+          <t>LAPORTE François</t>
         </is>
       </c>
       <c r="D535" t="n">
